--- a/tests/WebVella.Tefter.Tests/Files/TemplatePlacement1.xlsx
+++ b/tests/WebVella.Tefter.Tests/Files/TemplatePlacement1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.Tefter\tests\WebVella.Tefter.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2424F68B-4EA3-4F36-ADEB-BE5F7CFE65F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5578509-9826-49B0-8A5F-CA369BB9F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="9780" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="12072" yWindow="5472" windowWidth="28776" windowHeight="15456" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="{{name}}" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,17 +27,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>{{position}}</t>
+    <t>column1</t>
   </si>
   <si>
-    <t>{{name}}</t>
+    <t>column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,8 +54,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,13 +86,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -80,10 +122,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,17 +445,17 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" customWidth="1"/>
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
